--- a/data/visit_date.xlsx
+++ b/data/visit_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bjpessman/Documents/phd_research_code/Vibratory_Noise/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EECD62-91B0-C648-BD4B-1B20899CB93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A11DF68-BA86-0641-9B1C-4F0237229B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="10000" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B85">
         <v>3</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B89">
         <v>3</v>
